--- a/2022/Symphony/January/27.01.2022/MC Bank Statement January-2022.xlsx
+++ b/2022/Symphony/January/27.01.2022/MC Bank Statement January-2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -9586,11 +9586,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -9605,6 +9600,11 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9618,7 +9618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
@@ -34251,8 +34251,8 @@
   </sheetPr>
   <dimension ref="A1:Y219"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="G10:H10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
